--- a/文档/学校查询系统数据库222.xlsx
+++ b/文档/学校查询系统数据库222.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="146">
   <si>
     <t>通知表</t>
   </si>
@@ -72,6 +72,9 @@
     <t>被评论评论表的id</t>
   </si>
   <si>
+    <t>to_comments_id</t>
+  </si>
+  <si>
     <t>不是回复别人这为空</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
     <t>被评论人用户名</t>
   </si>
   <si>
+    <t>to_critics_name</t>
+  </si>
+  <si>
     <t>不是回复为空</t>
   </si>
   <si>
@@ -102,6 +108,9 @@
     <t>被评论人id</t>
   </si>
   <si>
+    <t>to_critics_id</t>
+  </si>
+  <si>
     <t>年份</t>
   </si>
   <si>
@@ -111,6 +120,9 @@
     <t>是否是评论</t>
   </si>
   <si>
+    <t>is_comments</t>
+  </si>
+  <si>
     <t>1是评论 0是回复</t>
   </si>
   <si>
@@ -123,6 +135,9 @@
     <t>评论的内容</t>
   </si>
   <si>
+    <t>comments</t>
+  </si>
+  <si>
     <t>专业id</t>
   </si>
   <si>
@@ -132,21 +147,36 @@
     <t>评论状态</t>
   </si>
   <si>
+    <t>comments_status</t>
+  </si>
+  <si>
     <t xml:space="preserve">  -1删除 1正常</t>
   </si>
   <si>
     <t>评论图片src</t>
   </si>
   <si>
+    <t>comments_pic</t>
+  </si>
+  <si>
     <t>评论时间</t>
   </si>
   <si>
+    <t>comments_time</t>
+  </si>
+  <si>
     <t>评论人用户名</t>
   </si>
   <si>
+    <t>critics_name</t>
+  </si>
+  <si>
     <t>评论人id</t>
   </si>
   <si>
+    <t>critics_id</t>
+  </si>
+  <si>
     <t>1（专业）：1（分数）</t>
   </si>
   <si>
@@ -411,10 +441,19 @@
     <t>创建时间</t>
   </si>
   <si>
+    <t>create_time</t>
+  </si>
+  <si>
     <t>更新时间</t>
   </si>
   <si>
+    <t>update_time</t>
+  </si>
+  <si>
     <t>操作者</t>
+  </si>
+  <si>
+    <t>operator</t>
   </si>
 </sst>
 </file>
@@ -422,10 +461,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -444,8 +483,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -460,114 +582,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,12 +597,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -597,19 +636,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,163 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,22 +867,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,21 +897,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -889,15 +908,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,8 +930,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,133 +984,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1571,37 +1610,41 @@
       <c r="K5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="M6" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>14</v>
@@ -1613,17 +1656,19 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="K7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="Q7" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S7" s="4"/>
     </row>
@@ -1632,17 +1677,19 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="K8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="M8" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S8" s="4"/>
     </row>
@@ -1651,15 +1698,17 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="K9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S9" s="4"/>
     </row>
@@ -1668,11 +1717,13 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="K10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="M10" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -1682,9 +1733,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="K11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1694,9 +1747,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="K12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1706,9 +1761,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="K13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:19">
@@ -1716,12 +1773,14 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="K14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -1731,7 +1790,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="K15" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1763,7 +1822,7 @@
     </row>
     <row r="18" spans="11:19">
       <c r="K18" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1787,24 +1846,24 @@
     </row>
     <row r="20" spans="5:19">
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M20" s="4"/>
       <c r="Q20" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1823,14 +1882,14 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -1846,36 +1905,36 @@
     </row>
     <row r="22" spans="5:19">
       <c r="E22" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="5:19">
       <c r="E23" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>14</v>
@@ -1885,19 +1944,19 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>14</v>
@@ -1906,76 +1965,76 @@
     </row>
     <row r="24" spans="5:19">
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M24" s="4"/>
       <c r="Q24" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="5:19">
       <c r="E25" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="M25" s="4"/>
       <c r="Q25" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="11:19">
       <c r="K26" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M26" s="4"/>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
     <row r="27" spans="11:19">
       <c r="K27" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M27" s="4"/>
       <c r="Q27" s="7"/>
@@ -1984,10 +2043,10 @@
     </row>
     <row r="28" spans="11:19">
       <c r="K28" s="4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M28" s="4"/>
       <c r="Q28" s="7"/>
@@ -1996,10 +2055,10 @@
     </row>
     <row r="29" spans="11:19">
       <c r="K29" s="9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M29" s="9"/>
       <c r="Q29" s="7"/>
@@ -2008,7 +2067,7 @@
     </row>
     <row r="30" spans="11:19">
       <c r="K30" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -2029,14 +2088,14 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="Q32" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2067,28 +2126,28 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="Q34" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C35" s="4"/>
       <c r="K35" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="Q35" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>14</v>
@@ -2097,10 +2156,10 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C36" s="4"/>
       <c r="K36" s="3" t="s">
@@ -2113,187 +2172,187 @@
         <v>4</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M37" s="4"/>
       <c r="Q37" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="4" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M41" s="4"/>
       <c r="Q41" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S41" s="4"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C42" s="4"/>
       <c r="Q42" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="S42" s="4"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S43" s="4"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2309,19 +2368,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/文档/学校查询系统数据库222.xlsx
+++ b/文档/学校查询系统数据库222.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView windowWidth="23040" windowHeight="8975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,10 +461,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -483,10 +483,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,9 +552,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,6 +576,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -522,7 +591,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,29 +599,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,52 +613,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -619,9 +620,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,31 +636,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,18 +798,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -696,127 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,21 +868,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -893,6 +878,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,44 +912,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +931,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,133 +984,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1495,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2424,7 +2424,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2441,7 +2441,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
